--- a/Menu/orders/orders.xlsx
+++ b/Menu/orders/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,10 +1086,8 @@
           <t>Cà phê đen</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1108,6 +1106,48 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>00020101021138550010A000000727012500069704230111440405059060208QRIBFTTA53037045405250005802VN63041B49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PCKW</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cà phê đen</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>35000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>105000</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-06-05 15:13:48</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>00020101021138550010A000000727012500069704230111440405059060208QRIBFTTA530370454061050005802VN63040260</t>
         </is>
       </c>
     </row>
